--- a/mySystem/mySystem/xls/CSBag/SOP-MFG-102-R01A 生产领料记录.xlsx
+++ b/mySystem/mySystem/xls/CSBag/SOP-MFG-102-R01A 生产领料记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017年工作\2017-生产指令台账\ERP\303，CS   2#制袋岗位记录\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\upload\mitcpro\mySystem\mySystem\xls\CSBag\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -224,8 +224,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -447,6 +447,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -461,15 +470,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,7 +489,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -751,27 +751,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.2" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="24.2" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="14.375" style="4" customWidth="1"/>
     <col min="3" max="3" width="8.75" style="4" customWidth="1"/>
     <col min="4" max="4" width="10.25" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="4" customWidth="1"/>
     <col min="7" max="7" width="13.25" style="4" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="4" customWidth="1"/>
     <col min="9" max="10" width="16.5" style="4" customWidth="1"/>
     <col min="11" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="18.75" customHeight="1">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -787,41 +787,41 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="35.450000000000003" customHeight="1">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:12" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-    </row>
-    <row r="3" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+    </row>
+    <row r="3" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28" t="s">
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="30"/>
+      <c r="J3" s="25"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:12" s="6" customFormat="1" ht="31.5" customHeight="1">
+    <row r="4" spans="1:12" s="6" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
@@ -846,15 +846,15 @@
       <c r="H4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="18"/>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -872,7 +872,7 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="6" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <v>2</v>
       </c>
@@ -888,7 +888,7 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="7" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
         <v>3</v>
       </c>
@@ -904,7 +904,7 @@
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="8" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
         <v>4</v>
       </c>
@@ -920,7 +920,7 @@
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="13">
         <v>5</v>
       </c>
@@ -936,7 +936,7 @@
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="13">
         <v>6</v>
       </c>
@@ -950,7 +950,7 @@
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="11" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="13">
         <v>7</v>
       </c>
@@ -964,7 +964,7 @@
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
     </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="12" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="13">
         <v>8</v>
       </c>
@@ -978,7 +978,7 @@
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
     </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="13" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13">
         <v>9</v>
       </c>
@@ -992,39 +992,65 @@
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
     </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="14" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13">
         <v>10</v>
       </c>
-      <c r="B14" s="11"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="20"/>
-      <c r="D14" s="11"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="9"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A15" s="15" t="s">
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+    </row>
+    <row r="15" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="13">
+        <v>11</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+    </row>
+    <row r="16" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:10" s="3" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="17"/>
-    </row>
-    <row r="17" spans="2:3" ht="24.2" customHeight="1">
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="19" spans="1:10" ht="24.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="19"/>
+      <c r="C19" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
